--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Timp2-Itga3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Timp2-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.198033784976</v>
+        <v>15.89290866666667</v>
       </c>
       <c r="H2">
-        <v>11.198033784976</v>
+        <v>47.678726</v>
       </c>
       <c r="I2">
-        <v>0.02975999531159001</v>
+        <v>0.04140398574586633</v>
       </c>
       <c r="J2">
-        <v>0.02975999531159001</v>
+        <v>0.04140398574586632</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.957212658238909</v>
+        <v>5.970993</v>
       </c>
       <c r="N2">
-        <v>0.957212658238909</v>
+        <v>17.912979</v>
       </c>
       <c r="O2">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="P2">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="Q2">
-        <v>10.71889968636599</v>
+        <v>94.896446398306</v>
       </c>
       <c r="R2">
-        <v>10.71889968636599</v>
+        <v>854.068017584754</v>
       </c>
       <c r="S2">
-        <v>0.008636068929544235</v>
+        <v>0.02549341749811079</v>
       </c>
       <c r="T2">
-        <v>0.008636068929544235</v>
+        <v>0.02549341749811078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.198033784976</v>
+        <v>15.89290866666667</v>
       </c>
       <c r="H3">
-        <v>11.198033784976</v>
+        <v>47.678726</v>
       </c>
       <c r="I3">
-        <v>0.02975999531159001</v>
+        <v>0.04140398574586633</v>
       </c>
       <c r="J3">
-        <v>0.02975999531159001</v>
+        <v>0.04140398574586632</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.34135344328107</v>
+        <v>1.061748</v>
       </c>
       <c r="N3">
-        <v>2.34135344328107</v>
+        <v>3.185244</v>
       </c>
       <c r="O3">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="P3">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="Q3">
-        <v>26.21855496043131</v>
+        <v>16.874263991016</v>
       </c>
       <c r="R3">
-        <v>26.21855496043131</v>
+        <v>151.868375919144</v>
       </c>
       <c r="S3">
-        <v>0.02112392638204578</v>
+        <v>0.004533179831526202</v>
       </c>
       <c r="T3">
-        <v>0.02112392638204578</v>
+        <v>0.004533179831526201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>268.09239559564</v>
+        <v>15.89290866666667</v>
       </c>
       <c r="H4">
-        <v>268.09239559564</v>
+        <v>47.678726</v>
       </c>
       <c r="I4">
-        <v>0.7124847619859438</v>
+        <v>0.04140398574586633</v>
       </c>
       <c r="J4">
-        <v>0.7124847619859438</v>
+        <v>0.04140398574586632</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.957212658238909</v>
+        <v>0.02952066666666667</v>
       </c>
       <c r="N4">
-        <v>0.957212658238909</v>
+        <v>0.088562</v>
       </c>
       <c r="O4">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987976</v>
       </c>
       <c r="P4">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987975</v>
       </c>
       <c r="Q4">
-        <v>256.6214346417398</v>
+        <v>0.4691692591124444</v>
       </c>
       <c r="R4">
-        <v>256.6214346417398</v>
+        <v>4.222523332012</v>
       </c>
       <c r="S4">
-        <v>0.2067563335053423</v>
+        <v>0.0001260397860382512</v>
       </c>
       <c r="T4">
-        <v>0.2067563335053423</v>
+        <v>0.0001260397860382512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>268.09239559564</v>
+        <v>15.89290866666667</v>
       </c>
       <c r="H5">
-        <v>268.09239559564</v>
+        <v>47.678726</v>
       </c>
       <c r="I5">
-        <v>0.7124847619859438</v>
+        <v>0.04140398574586633</v>
       </c>
       <c r="J5">
-        <v>0.7124847619859438</v>
+        <v>0.04140398574586632</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.34135344328107</v>
+        <v>2.635257666666666</v>
       </c>
       <c r="N5">
-        <v>2.34135344328107</v>
+        <v>7.905773</v>
       </c>
       <c r="O5">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="P5">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="Q5">
-        <v>627.6990535453225</v>
+        <v>41.88190940946644</v>
       </c>
       <c r="R5">
-        <v>627.6990535453225</v>
+        <v>376.937184685198</v>
       </c>
       <c r="S5">
-        <v>0.5057284284806015</v>
+        <v>0.01125134863019109</v>
       </c>
       <c r="T5">
-        <v>0.5057284284806015</v>
+        <v>0.01125134863019109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.6832608048027</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H6">
-        <v>39.6832608048027</v>
+        <v>806.401001</v>
       </c>
       <c r="I6">
-        <v>0.1054625908598349</v>
+        <v>0.700274909838328</v>
       </c>
       <c r="J6">
-        <v>0.1054625908598349</v>
+        <v>0.7002749098383279</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.957212658238909</v>
+        <v>5.970993</v>
       </c>
       <c r="N6">
-        <v>0.957212658238909</v>
+        <v>17.912979</v>
       </c>
       <c r="O6">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="P6">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="Q6">
-        <v>37.9853195625531</v>
+        <v>1605.004910721331</v>
       </c>
       <c r="R6">
-        <v>37.9853195625531</v>
+        <v>14445.04419649198</v>
       </c>
       <c r="S6">
-        <v>0.03060424555238933</v>
+        <v>0.4311758957105409</v>
       </c>
       <c r="T6">
-        <v>0.03060424555238933</v>
+        <v>0.4311758957105408</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.6832608048027</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H7">
-        <v>39.6832608048027</v>
+        <v>806.401001</v>
       </c>
       <c r="I7">
-        <v>0.1054625908598349</v>
+        <v>0.700274909838328</v>
       </c>
       <c r="J7">
-        <v>0.1054625908598349</v>
+        <v>0.7002749098383279</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.34135344328107</v>
+        <v>1.061748</v>
       </c>
       <c r="N7">
-        <v>2.34135344328107</v>
+        <v>3.185244</v>
       </c>
       <c r="O7">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="P7">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="Q7">
-        <v>92.91253932594552</v>
+        <v>285.3982166699159</v>
       </c>
       <c r="R7">
-        <v>92.91253932594552</v>
+        <v>2568.583950029244</v>
       </c>
       <c r="S7">
-        <v>0.07485834530744555</v>
+        <v>0.07667068859716891</v>
       </c>
       <c r="T7">
-        <v>0.07485834530744555</v>
+        <v>0.0766706885971689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>57.3043860619566</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H8">
-        <v>57.3043860619566</v>
+        <v>806.401001</v>
       </c>
       <c r="I8">
-        <v>0.1522926518426313</v>
+        <v>0.700274909838328</v>
       </c>
       <c r="J8">
-        <v>0.1522926518426313</v>
+        <v>0.7002749098383279</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.957212658238909</v>
+        <v>0.02952066666666667</v>
       </c>
       <c r="N8">
-        <v>0.957212658238909</v>
+        <v>0.088562</v>
       </c>
       <c r="O8">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987976</v>
       </c>
       <c r="P8">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987975</v>
       </c>
       <c r="Q8">
-        <v>54.85248371111416</v>
+        <v>7.935165050062444</v>
       </c>
       <c r="R8">
-        <v>54.85248371111416</v>
+        <v>71.41648545056199</v>
       </c>
       <c r="S8">
-        <v>0.04419388595346444</v>
+        <v>0.002131739208532368</v>
       </c>
       <c r="T8">
-        <v>0.04419388595346444</v>
+        <v>0.002131739208532367</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>57.3043860619566</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H9">
-        <v>57.3043860619566</v>
+        <v>806.401001</v>
       </c>
       <c r="I9">
-        <v>0.1522926518426313</v>
+        <v>0.700274909838328</v>
       </c>
       <c r="J9">
-        <v>0.1522926518426313</v>
+        <v>0.7002749098383279</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.34135344328107</v>
+        <v>2.635257666666666</v>
       </c>
       <c r="N9">
-        <v>2.34135344328107</v>
+        <v>7.905773</v>
       </c>
       <c r="O9">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="P9">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="Q9">
-        <v>134.1698216212698</v>
+        <v>708.3581400976414</v>
       </c>
       <c r="R9">
-        <v>134.1698216212698</v>
+        <v>6375.223260878773</v>
       </c>
       <c r="S9">
-        <v>0.1080987658891668</v>
+        <v>0.1902965863220858</v>
       </c>
       <c r="T9">
-        <v>0.1080987658891668</v>
+        <v>0.1902965863220857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>41.83092566666667</v>
+      </c>
+      <c r="H10">
+        <v>125.492777</v>
+      </c>
+      <c r="I10">
+        <v>0.1089773487260793</v>
+      </c>
+      <c r="J10">
+        <v>0.1089773487260792</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>5.970993</v>
+      </c>
+      <c r="N10">
+        <v>17.912979</v>
+      </c>
+      <c r="O10">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="P10">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="Q10">
+        <v>249.772164339187</v>
+      </c>
+      <c r="R10">
+        <v>2247.949479052683</v>
+      </c>
+      <c r="S10">
+        <v>0.06709994216410722</v>
+      </c>
+      <c r="T10">
+        <v>0.0670999421641072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>41.83092566666667</v>
+      </c>
+      <c r="H11">
+        <v>125.492777</v>
+      </c>
+      <c r="I11">
+        <v>0.1089773487260793</v>
+      </c>
+      <c r="J11">
+        <v>0.1089773487260792</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.061748</v>
+      </c>
+      <c r="N11">
+        <v>3.185244</v>
+      </c>
+      <c r="O11">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="P11">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="Q11">
+        <v>44.41390166473199</v>
+      </c>
+      <c r="R11">
+        <v>399.725114982588</v>
+      </c>
+      <c r="S11">
+        <v>0.01193155466651133</v>
+      </c>
+      <c r="T11">
+        <v>0.01193155466651133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>41.83092566666667</v>
+      </c>
+      <c r="H12">
+        <v>125.492777</v>
+      </c>
+      <c r="I12">
+        <v>0.1089773487260793</v>
+      </c>
+      <c r="J12">
+        <v>0.1089773487260792</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02952066666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.088562</v>
+      </c>
+      <c r="O12">
+        <v>0.003044146203987976</v>
+      </c>
+      <c r="P12">
+        <v>0.003044146203987975</v>
+      </c>
+      <c r="Q12">
+        <v>1.234876812963778</v>
+      </c>
+      <c r="R12">
+        <v>11.113891316674</v>
+      </c>
+      <c r="S12">
+        <v>0.000331742982445168</v>
+      </c>
+      <c r="T12">
+        <v>0.0003317429824451679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>41.83092566666667</v>
+      </c>
+      <c r="H13">
+        <v>125.492777</v>
+      </c>
+      <c r="I13">
+        <v>0.1089773487260793</v>
+      </c>
+      <c r="J13">
+        <v>0.1089773487260792</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.635257666666666</v>
+      </c>
+      <c r="N13">
+        <v>7.905773</v>
+      </c>
+      <c r="O13">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="P13">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="Q13">
+        <v>110.2352675668468</v>
+      </c>
+      <c r="R13">
+        <v>992.1174081016209</v>
+      </c>
+      <c r="S13">
+        <v>0.02961410891301556</v>
+      </c>
+      <c r="T13">
+        <v>0.02961410891301554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>57.32556</v>
+      </c>
+      <c r="H14">
+        <v>171.97668</v>
+      </c>
+      <c r="I14">
+        <v>0.1493437556897266</v>
+      </c>
+      <c r="J14">
+        <v>0.1493437556897266</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>5.970993</v>
+      </c>
+      <c r="N14">
+        <v>17.912979</v>
+      </c>
+      <c r="O14">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="P14">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="Q14">
+        <v>342.29051748108</v>
+      </c>
+      <c r="R14">
+        <v>3080.61465732972</v>
+      </c>
+      <c r="S14">
+        <v>0.09195449776025894</v>
+      </c>
+      <c r="T14">
+        <v>0.09195449776025892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>57.32556</v>
+      </c>
+      <c r="H15">
+        <v>171.97668</v>
+      </c>
+      <c r="I15">
+        <v>0.1493437556897266</v>
+      </c>
+      <c r="J15">
+        <v>0.1493437556897266</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.061748</v>
+      </c>
+      <c r="N15">
+        <v>3.185244</v>
+      </c>
+      <c r="O15">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="P15">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="Q15">
+        <v>60.86529867887999</v>
+      </c>
+      <c r="R15">
+        <v>547.7876881099199</v>
+      </c>
+      <c r="S15">
+        <v>0.0163511335699036</v>
+      </c>
+      <c r="T15">
+        <v>0.0163511335699036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>57.32556</v>
+      </c>
+      <c r="H16">
+        <v>171.97668</v>
+      </c>
+      <c r="I16">
+        <v>0.1493437556897266</v>
+      </c>
+      <c r="J16">
+        <v>0.1493437556897266</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02952066666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.088562</v>
+      </c>
+      <c r="O16">
+        <v>0.003044146203987976</v>
+      </c>
+      <c r="P16">
+        <v>0.003044146203987975</v>
+      </c>
+      <c r="Q16">
+        <v>1.69228874824</v>
+      </c>
+      <c r="R16">
+        <v>15.23059873416</v>
+      </c>
+      <c r="S16">
+        <v>0.0004546242269721889</v>
+      </c>
+      <c r="T16">
+        <v>0.0004546242269721887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>57.32556</v>
+      </c>
+      <c r="H17">
+        <v>171.97668</v>
+      </c>
+      <c r="I17">
+        <v>0.1493437556897266</v>
+      </c>
+      <c r="J17">
+        <v>0.1493437556897266</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.635257666666666</v>
+      </c>
+      <c r="N17">
+        <v>7.905773</v>
+      </c>
+      <c r="O17">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="P17">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="Q17">
+        <v>151.06762148596</v>
+      </c>
+      <c r="R17">
+        <v>1359.60859337364</v>
+      </c>
+      <c r="S17">
+        <v>0.04058350013259188</v>
+      </c>
+      <c r="T17">
+        <v>0.04058350013259187</v>
       </c>
     </row>
   </sheetData>
